--- a/artfynd/A 2503-2020.xlsx
+++ b/artfynd/A 2503-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111480469</v>
+        <v>111480474</v>
       </c>
       <c r="B2" t="n">
         <v>81248</v>

--- a/artfynd/A 2503-2020.xlsx
+++ b/artfynd/A 2503-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111480474</v>
+        <v>111480469</v>
       </c>
       <c r="B2" t="n">
         <v>81248</v>
